--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
@@ -12948,7 +12948,7 @@
         <v>1.3241</v>
       </c>
       <c r="G500" t="n">
-        <v>4157120</v>
+        <v>3962031</v>
       </c>
     </row>
     <row r="501">
@@ -12967,13 +12967,13 @@
         <v>1.33869</v>
       </c>
       <c r="E501" t="n">
-        <v>1.3203</v>
+        <v>1.30922</v>
       </c>
       <c r="F501" t="n">
-        <v>1.32756</v>
+        <v>1.32222</v>
       </c>
       <c r="G501" t="n">
-        <v>783428</v>
+        <v>1960958</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407.375</v>
+        <v>30407.33333333333</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30592.33333333333</v>
+        <v>30592.29166666667</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138.375</v>
+        <v>31138.33333333333</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503.375</v>
+        <v>31503.33333333333</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868.375</v>
+        <v>31868.33333333333</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234.375</v>
+        <v>32234.33333333333</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32419.33333333333</v>
+        <v>32419.29166666667</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32783.33333333334</v>
+        <v>32783.29166666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.29166666666</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.29166666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770.29166666666</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.29166666666</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.29166666666</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>1.31895</v>
       </c>
       <c r="G500" t="n">
-        <v>4053901</v>
+        <v>3823972</v>
       </c>
     </row>
     <row r="501">
@@ -12964,16 +12964,16 @@
         <v>1.31895</v>
       </c>
       <c r="D501" t="n">
-        <v>1.33939</v>
+        <v>1.35019</v>
       </c>
       <c r="E501" t="n">
         <v>1.31792</v>
       </c>
       <c r="F501" t="n">
-        <v>1.33797</v>
+        <v>1.34594</v>
       </c>
       <c r="G501" t="n">
-        <v>801372</v>
+        <v>2209528</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
@@ -12964,16 +12964,16 @@
         <v>1.31895</v>
       </c>
       <c r="D501" t="n">
-        <v>1.35019</v>
+        <v>1.364</v>
       </c>
       <c r="E501" t="n">
         <v>1.31792</v>
       </c>
       <c r="F501" t="n">
-        <v>1.34594</v>
+        <v>1.3591</v>
       </c>
       <c r="G501" t="n">
-        <v>2209528</v>
+        <v>4309273</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Canada_FX.xlsx
@@ -12970,10 +12970,10 @@
         <v>1.36292</v>
       </c>
       <c r="F501" t="n">
-        <v>1.38007</v>
+        <v>1.37223</v>
       </c>
       <c r="G501" t="n">
-        <v>1752836</v>
+        <v>3029287</v>
       </c>
     </row>
   </sheetData>
